--- a/example_data/Summary/before/Individual Values/Indv Raw Means Differences_before_.xlsx
+++ b/example_data/Summary/before/Individual Values/Indv Raw Means Differences_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,225 +438,923 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0003014744541828445</v>
+        <v>-0.001606246032720595</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.001316102767228628</v>
+        <v>-0.000313180124425401</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.0003014744541828445</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.0003014744541828445</v>
+        <v>-0.001606246032720595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001397670991200596</v>
+        <v>0.0003828180729170743</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.0009380271147472969</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.001316102767228628</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0.001316102767228628</v>
+        <v>0.0003828180729170743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00313385460355989</v>
+        <v>0.001255009221312051</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.001443326197413452</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.001397670991200596</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.001397670991200596</v>
+        <v>0.001255009221312051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001159234158487194</v>
+        <v>-0.0001355140497542769</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.000221892897407877</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.00313385460355989</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.00313385460355989</v>
+        <v>-0.0001355140497542769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002686042059595554</v>
+        <v>-0.003039732908157198</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0004768156840612247</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.001159234158487194</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.001159234158487194</v>
+        <v>-0.003039732908157198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.003105405986281808</v>
+        <v>0.00152658697047083</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0002792297512547526</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.0002686042059595554</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.0002686042059595554</v>
+        <v>0.00152658697047083</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.005408073190197065</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.600170838090531e-05</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-0.003105405986281808</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.003105405986281808</v>
+        <v>0.005408073190197065</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.00341630376263193</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.000135052845929769</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.00341630376263193</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.00141323565388192</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.0001541113922503522</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.00141323565388192</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.0006452540091471549</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.0002285634192235994</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.0006452540091471549</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.003076904323547545</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.000160512841250883</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.003076904323547545</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.001034006319493579</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0001670492054736002</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.000313180124425401</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0009235831707674583</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.0001089749191429236</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.0009380271147472969</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-2.137429879649319e-05</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.002908382862336291</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.001443326197413452</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.00079339269501063</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001046567738083991</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.000221892897407877</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.0005471658774115335</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0004768156840612247</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0005241550441941011</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0002792297512547526</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0002586529648429003</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-4.600170838090531e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-9.983981570596155e-05</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.000135052845929769</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.0003799057511127237</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001034006319493579</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0002368140623947324</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0009235831707674583</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.00391886439517128</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.137429879649319e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.00328041938862512</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.00079339269501063</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.003262573306604996</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0005471658774115335</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.005572569194938761</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0005241550441941011</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.0001665626800232557</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0002586529648429003</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.000389614057610795</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-9.983981570596155e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0001742136785699304</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0001541113922503522</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0004409076778409209</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0002285634192235994</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0007546835517128901</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0003799057511127237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.001114556866552441</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0002368140623947324</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.000155410532334423</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.000160512841250883</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.001938819230932381</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.00391886439517128</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.0009376534708414284</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.00328041938862512</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.001779027472149651</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.003262573306604996</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.005572569194938761</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.0001665626800232557</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.000389614057610795</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.0001742136785699304</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.0004409076778409209</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0007546835517128901</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001114556866552441</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.000155410532334423</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.001938819230932381</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0001670492054736002</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.0001089749191429236</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.002908382862336291</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001046567738083991</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.001779027472149651</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +1368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,225 +1379,923 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.05163117328728423</v>
+        <v>-0.1349805354833984</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.225398633601779</v>
+        <v>-0.05986632267785649</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.05163117328728423</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.05163117328728423</v>
+        <v>-0.1349805354833984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2393681857419361</v>
+        <v>0.03217003337125618</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1793096992827103</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.225398633601779</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0.225398633601779</v>
+        <v>0.03217003337125618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1597473148046352</v>
+        <v>0.1054644265439073</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.2759007520745118</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.2393681857419361</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.2393681857419361</v>
+        <v>0.1054644265439073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05909161957857911</v>
+        <v>-0.01138789365311255</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04241620320100703</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1597473148046352</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1597473148046352</v>
+        <v>-0.01138789365311255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01369202023556809</v>
+        <v>-0.2554432928152414</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09114627453528454</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.05909161957857911</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.05909161957857911</v>
+        <v>-0.2554432928152414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1582971549232814</v>
+        <v>0.1282864035387631</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05337649833476732</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.01369202023556809</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.01369202023556809</v>
+        <v>0.1282864035387631</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2071177734474415</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.008793511793625752</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-0.1582971549232814</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.1582971549232814</v>
+        <v>0.2071177734474415</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1308372138933015</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.02581618890352114</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1308372138933015</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.0541239387290719</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.04334493355614569</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.0541239387290719</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.0247118648329025</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.06428509972525881</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.0247118648329025</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1722120694278486</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.04514538696545828</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1722120694278486</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1414863382056613</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01178935414683843</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.05986632267785649</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.126376791318124</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.00769081128675006</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.1793096992827103</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.002924712558730447</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2052566216131853</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.2759007520745118</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.1085624188749189</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.07386061889936774</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.04241620320100703</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.1538943244511429</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.09114627453528454</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1474223626946695</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05337649833476732</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.07274800007648338</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.008793511793625752</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.02808066369942763</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.02581618890352114</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.1068512152095036</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1414863382056613</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.06660565224786075</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.126376791318124</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.09467522813923165</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.002924712558730447</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.07925113570990712</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1085624188749189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.07881999502314885</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1538943244511429</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1346268221228979</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1474223626946695</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.02695978024164081</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.07274800007648338</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06306280236830034</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.02808066369942763</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.02819816833325084</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.04334493355614569</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0713651707560406</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.06428509972525881</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1221528298134957</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1068512152095036</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1804018054036488</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.06660565224786075</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.02515469730907</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.04514538696545828</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1368305013804747</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.09467522813923165</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.06617408806837322</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.07925113570990712</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.1255533352982122</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.07881999502314885</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1346268221228979</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.02695978024164081</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.06306280236830034</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.02819816833325084</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.0713651707560406</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1221528298134957</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1804018054036488</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.02515469730907</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1368305013804747</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01178935414683843</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.00769081128675006</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.2052566216131853</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.07386061889936774</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.1255533352982122</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +2309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,239 +2320,1019 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3302162393253822</v>
+        <v>-0.9604881431576346</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.441576559241004</v>
+        <v>-0.3868507673661736</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.3302162393253822</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-0.3302162393253822</v>
+        <v>-0.9604881431576346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.530921284124849</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>0.2289140097675586</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.158683073570035</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.441576559241004</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1.441576559241004</v>
+        <v>0.2289140097675586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.287743630502282</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>0.7504588039866015</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.78284572832812</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.530921284124849</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1.530921284124849</v>
+        <v>0.7504588039866015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.476345138079099</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>-0.08103343782259653</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2740896721745436</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.287743630502282</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1.287743630502282</v>
+        <v>-0.08103343782259653</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1103731344005638</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>-1.817671363649014</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.588978989678028</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.476345138079099</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.476345138079099</v>
+        <v>-1.817671363649014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.276053705368285</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>0.9128543540447904</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3449141089095427</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.1103731344005638</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.1103731344005638</v>
+        <v>0.9128543540447904</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.36407483713791</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.05682287859090238</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-1.276053705368285</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-1.276053705368285</v>
+        <v>1.36407483713791</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.8616921100611011</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.1668218798328037</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.8616921100611011</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3564595238653237</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.3567678719402396</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.3564595238653237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1627520054712714</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.5291243138425537</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1627520054712714</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9468408775265313</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.3715872263299735</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9468408775265313</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.933149020866212</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.08850627231728164</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.3868507673661736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8334965804776366</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.05773726275484459</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.158683073570035</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.01928944303108171</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.540923974388673</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.78284572832812</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.7160049242969564</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5544941621406363</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2740896721745436</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.26668900223358</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.588978989678028</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.213418923502355</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3449141089095427</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5987816117326921</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.05682287859090238</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2311291726341543</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.1668218798328037</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.8794818110666626</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.933149020866212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5482245527238023</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8334965804776366</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.699983376387961</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.01928944303108171</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.585945010612694</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.7160049242969564</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5827573624860749</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-1.26668900223358</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9953663630298418</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.213418923502355</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1699631414546812</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.5987816117326921</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3975682258306011</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.2311291726341543</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1777703390098386</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.3567678719402396</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.4499090312840099</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.5291243138425537</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7700907984633181</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.8794818110666626</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.137311109203394</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5482245527238023</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1585833170252481</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.3715872263299735</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.027228248948493</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.699983376387961</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.4967890340708667</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.585945010612694</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.9425671284314212</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5827573624860749</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9953663630298418</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.1699631414546812</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3975682258306011</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.1777703390098386</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.4499090312840099</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.7700907984633181</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.137311109203394</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.1585833170252481</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.027228248948493</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.08850627231728164</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.05773726275484459</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1.540923974388673</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5544941621406363</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.9425671284314212</v>
       </c>
     </row>
   </sheetData>
